--- a/data/trans_orig/P36B02_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P36B02_2023-Habitat-trans_orig.xlsx
@@ -537,7 +537,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población según la frecuencia de consumición de leche y derivados en 2023 (Tasa respuesta: 99,95%)</t>
+          <t>Población según la frecuencia de consumo de leche y derivados en 2023 (Tasa respuesta: 99,95%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -691,12 +691,12 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,53%</t>
+          <t>2,61%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>13,62%</t>
+          <t>13,25%</t>
         </is>
       </c>
       <c r="H4" s="2" t="n">
@@ -712,12 +712,12 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>3,42%</t>
+          <t>3,17%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>11,26%</t>
+          <t>10,52%</t>
         </is>
       </c>
       <c r="M4" s="2" t="n">
@@ -733,12 +733,12 @@
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>3,91%</t>
+          <t>3,72%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>10,27%</t>
+          <t>9,9%</t>
         </is>
       </c>
     </row>
@@ -767,7 +767,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,04%</t>
+          <t>0,97%</t>
         </is>
       </c>
       <c r="H5" s="2" t="n">
@@ -809,7 +809,7 @@
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>0,29%</t>
+          <t>0,38%</t>
         </is>
       </c>
     </row>
@@ -833,12 +833,12 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,71%</t>
+          <t>1,98%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>10,57%</t>
+          <t>10,1%</t>
         </is>
       </c>
       <c r="H6" s="2" t="n">
@@ -875,12 +875,12 @@
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>0,95%</t>
+          <t>0,77%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>5,14%</t>
+          <t>4,52%</t>
         </is>
       </c>
     </row>
@@ -904,12 +904,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,1%</t>
+          <t>2,06%</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>12,43%</t>
+          <t>12,19%</t>
         </is>
       </c>
       <c r="H7" s="2" t="n">
@@ -925,12 +925,12 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>6,1%</t>
+          <t>6,29%</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>15,52%</t>
+          <t>15,12%</t>
         </is>
       </c>
       <c r="M7" s="2" t="n">
@@ -946,12 +946,12 @@
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>5,57%</t>
+          <t>5,05%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>12,04%</t>
+          <t>11,63%</t>
         </is>
       </c>
     </row>
@@ -975,12 +975,12 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>73,71%</t>
+          <t>74,52%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>89,22%</t>
+          <t>89,27%</t>
         </is>
       </c>
       <c r="H8" s="2" t="n">
@@ -996,12 +996,12 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>77,34%</t>
+          <t>78,24%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>88,8%</t>
+          <t>88,54%</t>
         </is>
       </c>
       <c r="M8" s="2" t="n">
@@ -1017,12 +1017,12 @@
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>78,36%</t>
+          <t>78,86%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>87,24%</t>
+          <t>87,48%</t>
         </is>
       </c>
     </row>
@@ -1121,12 +1121,12 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3,13%</t>
+          <t>3,19%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>7,91%</t>
+          <t>7,66%</t>
         </is>
       </c>
       <c r="H10" s="2" t="n">
@@ -1142,12 +1142,12 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>2,67%</t>
+          <t>2,58%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>5,69%</t>
+          <t>5,78%</t>
         </is>
       </c>
       <c r="M10" s="2" t="n">
@@ -1168,7 +1168,7 @@
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>6,21%</t>
+          <t>6,13%</t>
         </is>
       </c>
     </row>
@@ -1192,12 +1192,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,63%</t>
+          <t>2,51%</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>5,98%</t>
+          <t>5,78%</t>
         </is>
       </c>
       <c r="H11" s="2" t="n">
@@ -1213,12 +1213,12 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,16%</t>
+          <t>1,15%</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>2,87%</t>
+          <t>2,95%</t>
         </is>
       </c>
       <c r="M11" s="2" t="n">
@@ -1234,12 +1234,12 @@
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>2,07%</t>
+          <t>2,12%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>3,89%</t>
+          <t>3,98%</t>
         </is>
       </c>
     </row>
@@ -1263,12 +1263,12 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2,0%</t>
+          <t>1,95%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>5,91%</t>
+          <t>5,82%</t>
         </is>
       </c>
       <c r="H12" s="2" t="n">
@@ -1284,12 +1284,12 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>2,92%</t>
+          <t>2,9%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>6,07%</t>
+          <t>5,99%</t>
         </is>
       </c>
       <c r="M12" s="2" t="n">
@@ -1305,12 +1305,12 @@
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>2,79%</t>
+          <t>2,75%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>5,17%</t>
+          <t>5,07%</t>
         </is>
       </c>
     </row>
@@ -1334,7 +1334,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>10,72%</t>
+          <t>10,8%</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1355,12 +1355,12 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>11,86%</t>
+          <t>11,8%</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>16,34%</t>
+          <t>16,51%</t>
         </is>
       </c>
       <c r="M13" s="2" t="n">
@@ -1376,12 +1376,12 @@
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>12,12%</t>
+          <t>12,07%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>15,84%</t>
+          <t>15,76%</t>
         </is>
       </c>
     </row>
@@ -1405,12 +1405,12 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>69,48%</t>
+          <t>69,72%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>78,05%</t>
+          <t>78,18%</t>
         </is>
       </c>
       <c r="H14" s="2" t="n">
@@ -1426,12 +1426,12 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>72,49%</t>
+          <t>72,71%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>78,58%</t>
+          <t>78,86%</t>
         </is>
       </c>
       <c r="M14" s="2" t="n">
@@ -1447,12 +1447,12 @@
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>72,54%</t>
+          <t>72,56%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>77,61%</t>
+          <t>77,55%</t>
         </is>
       </c>
     </row>
@@ -1551,12 +1551,12 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>2,49%</t>
+          <t>2,51%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>5,17%</t>
+          <t>5,19%</t>
         </is>
       </c>
       <c r="H16" s="2" t="n">
@@ -1572,12 +1572,12 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>2,21%</t>
+          <t>2,28%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>4,33%</t>
+          <t>4,4%</t>
         </is>
       </c>
       <c r="M16" s="2" t="n">
@@ -1593,7 +1593,7 @@
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>2,69%</t>
+          <t>2,71%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -1622,12 +1622,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,34%</t>
+          <t>1,24%</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>3,57%</t>
+          <t>3,42%</t>
         </is>
       </c>
       <c r="H17" s="2" t="n">
@@ -1643,12 +1643,12 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,56%</t>
+          <t>1,54%</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>3,28%</t>
+          <t>3,23%</t>
         </is>
       </c>
       <c r="M17" s="2" t="n">
@@ -1664,12 +1664,12 @@
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>1,68%</t>
+          <t>1,63%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>3,13%</t>
+          <t>3,01%</t>
         </is>
       </c>
     </row>
@@ -1693,12 +1693,12 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>2,79%</t>
+          <t>2,77%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>5,62%</t>
+          <t>5,61%</t>
         </is>
       </c>
       <c r="H18" s="2" t="n">
@@ -1714,12 +1714,12 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>2,4%</t>
+          <t>2,28%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>4,25%</t>
+          <t>4,23%</t>
         </is>
       </c>
       <c r="M18" s="2" t="n">
@@ -1735,12 +1735,12 @@
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>2,87%</t>
+          <t>2,78%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>4,48%</t>
+          <t>4,51%</t>
         </is>
       </c>
     </row>
@@ -1764,12 +1764,12 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>13,54%</t>
+          <t>13,85%</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>19,63%</t>
+          <t>19,95%</t>
         </is>
       </c>
       <c r="H19" s="2" t="n">
@@ -1785,12 +1785,12 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>14,83%</t>
+          <t>14,74%</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>18,98%</t>
+          <t>18,83%</t>
         </is>
       </c>
       <c r="M19" s="2" t="n">
@@ -1806,12 +1806,12 @@
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>14,84%</t>
+          <t>14,89%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>18,59%</t>
+          <t>18,69%</t>
         </is>
       </c>
     </row>
@@ -1835,12 +1835,12 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>70,15%</t>
+          <t>69,94%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>78,09%</t>
+          <t>77,82%</t>
         </is>
       </c>
       <c r="H20" s="2" t="n">
@@ -1856,7 +1856,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>72,04%</t>
+          <t>72,02%</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
@@ -1877,12 +1877,12 @@
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>71,74%</t>
+          <t>71,69%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>76,44%</t>
+          <t>76,51%</t>
         </is>
       </c>
     </row>
@@ -1981,12 +1981,12 @@
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>6,54%</t>
+          <t>6,42%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>11,48%</t>
+          <t>11,29%</t>
         </is>
       </c>
       <c r="H22" s="2" t="n">
@@ -2002,12 +2002,12 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>3,3%</t>
+          <t>3,27%</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>7,07%</t>
+          <t>7,17%</t>
         </is>
       </c>
       <c r="M22" s="2" t="n">
@@ -2023,12 +2023,12 @@
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>5,18%</t>
+          <t>5,05%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>8,46%</t>
+          <t>8,37%</t>
         </is>
       </c>
     </row>
@@ -2052,12 +2052,12 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>2,41%</t>
+          <t>2,49%</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>5,36%</t>
+          <t>5,46%</t>
         </is>
       </c>
       <c r="H23" s="2" t="n">
@@ -2073,12 +2073,12 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>1,48%</t>
+          <t>1,47%</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>3,62%</t>
+          <t>3,72%</t>
         </is>
       </c>
       <c r="M23" s="2" t="n">
@@ -2094,12 +2094,12 @@
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>2,15%</t>
+          <t>2,23%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>4,09%</t>
+          <t>4,15%</t>
         </is>
       </c>
     </row>
@@ -2123,12 +2123,12 @@
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>5,61%</t>
+          <t>5,76%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>10,22%</t>
+          <t>10,02%</t>
         </is>
       </c>
       <c r="H24" s="2" t="n">
@@ -2144,12 +2144,12 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>3,36%</t>
+          <t>3,49%</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>7,34%</t>
+          <t>7,28%</t>
         </is>
       </c>
       <c r="M24" s="2" t="n">
@@ -2165,12 +2165,12 @@
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>4,8%</t>
+          <t>4,85%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>7,95%</t>
+          <t>8,08%</t>
         </is>
       </c>
     </row>
@@ -2194,12 +2194,12 @@
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>20,87%</t>
+          <t>20,72%</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>28,17%</t>
+          <t>28,09%</t>
         </is>
       </c>
       <c r="H25" s="2" t="n">
@@ -2215,12 +2215,12 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>11,86%</t>
+          <t>11,84%</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>21,89%</t>
+          <t>22,36%</t>
         </is>
       </c>
       <c r="M25" s="2" t="n">
@@ -2236,12 +2236,12 @@
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>16,55%</t>
+          <t>16,46%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>23,95%</t>
+          <t>23,59%</t>
         </is>
       </c>
     </row>
@@ -2265,12 +2265,12 @@
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>51,25%</t>
+          <t>51,3%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>59,9%</t>
+          <t>59,78%</t>
         </is>
       </c>
       <c r="H26" s="2" t="n">
@@ -2286,12 +2286,12 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>62,75%</t>
+          <t>62,52%</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>79,36%</t>
+          <t>79,91%</t>
         </is>
       </c>
       <c r="M26" s="2" t="n">
@@ -2307,12 +2307,12 @@
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>58,6%</t>
+          <t>58,94%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>70,94%</t>
+          <t>71,42%</t>
         </is>
       </c>
     </row>
@@ -2411,12 +2411,12 @@
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>2,95%</t>
+          <t>2,82%</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>6,06%</t>
+          <t>5,89%</t>
         </is>
       </c>
       <c r="H28" s="2" t="n">
@@ -2432,12 +2432,12 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>3,52%</t>
+          <t>3,48%</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>5,73%</t>
+          <t>5,61%</t>
         </is>
       </c>
       <c r="M28" s="2" t="n">
@@ -2453,12 +2453,12 @@
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>3,45%</t>
+          <t>3,46%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
         <is>
-          <t>5,25%</t>
+          <t>5,35%</t>
         </is>
       </c>
     </row>
@@ -2482,12 +2482,12 @@
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>1,21%</t>
+          <t>1,32%</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>3,04%</t>
+          <t>3,24%</t>
         </is>
       </c>
       <c r="H29" s="2" t="n">
@@ -2503,12 +2503,12 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>1,62%</t>
+          <t>1,58%</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>9,53%</t>
+          <t>8,4%</t>
         </is>
       </c>
       <c r="M29" s="2" t="n">
@@ -2524,12 +2524,12 @@
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>1,75%</t>
+          <t>1,74%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
         <is>
-          <t>5,31%</t>
+          <t>5,47%</t>
         </is>
       </c>
     </row>
@@ -2553,12 +2553,12 @@
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>3,65%</t>
+          <t>3,69%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>6,92%</t>
+          <t>7,08%</t>
         </is>
       </c>
       <c r="H30" s="2" t="n">
@@ -2574,12 +2574,12 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>3,47%</t>
+          <t>3,48%</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>5,7%</t>
+          <t>5,65%</t>
         </is>
       </c>
       <c r="M30" s="2" t="n">
@@ -2595,12 +2595,12 @@
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>3,95%</t>
+          <t>3,82%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
         <is>
-          <t>5,82%</t>
+          <t>5,69%</t>
         </is>
       </c>
     </row>
@@ -2624,12 +2624,12 @@
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>11,93%</t>
+          <t>12,07%</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>16,73%</t>
+          <t>16,85%</t>
         </is>
       </c>
       <c r="H31" s="2" t="n">
@@ -2645,12 +2645,12 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>12,69%</t>
+          <t>12,64%</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>16,69%</t>
+          <t>16,68%</t>
         </is>
       </c>
       <c r="M31" s="2" t="n">
@@ -2666,12 +2666,12 @@
       </c>
       <c r="P31" s="2" t="inlineStr">
         <is>
-          <t>13,08%</t>
+          <t>12,99%</t>
         </is>
       </c>
       <c r="Q31" s="2" t="inlineStr">
         <is>
-          <t>16,32%</t>
+          <t>16,13%</t>
         </is>
       </c>
     </row>
@@ -2695,12 +2695,12 @@
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>71,29%</t>
+          <t>71,26%</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>77,52%</t>
+          <t>77,54%</t>
         </is>
       </c>
       <c r="H32" s="2" t="n">
@@ -2716,12 +2716,12 @@
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>69,64%</t>
+          <t>69,41%</t>
         </is>
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>75,92%</t>
+          <t>75,77%</t>
         </is>
       </c>
       <c r="M32" s="2" t="n">
@@ -2737,12 +2737,12 @@
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>71,42%</t>
+          <t>71,43%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
         <is>
-          <t>75,69%</t>
+          <t>75,89%</t>
         </is>
       </c>
     </row>
@@ -2841,12 +2841,12 @@
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>4,35%</t>
+          <t>4,39%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>6,07%</t>
+          <t>6,23%</t>
         </is>
       </c>
       <c r="H34" s="2" t="n">
@@ -2862,12 +2862,12 @@
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>3,7%</t>
+          <t>3,66%</t>
         </is>
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>5,0%</t>
+          <t>4,98%</t>
         </is>
       </c>
       <c r="M34" s="2" t="n">
@@ -2883,12 +2883,12 @@
       </c>
       <c r="P34" s="2" t="inlineStr">
         <is>
-          <t>4,23%</t>
+          <t>4,21%</t>
         </is>
       </c>
       <c r="Q34" s="2" t="inlineStr">
         <is>
-          <t>5,32%</t>
+          <t>5,27%</t>
         </is>
       </c>
     </row>
@@ -2917,7 +2917,7 @@
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>3,45%</t>
+          <t>3,42%</t>
         </is>
       </c>
       <c r="H35" s="2" t="n">
@@ -2933,12 +2933,12 @@
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>1,89%</t>
+          <t>1,87%</t>
         </is>
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>4,03%</t>
+          <t>4,13%</t>
         </is>
       </c>
       <c r="M35" s="2" t="n">
@@ -2954,12 +2954,12 @@
       </c>
       <c r="P35" s="2" t="inlineStr">
         <is>
-          <t>2,18%</t>
+          <t>2,17%</t>
         </is>
       </c>
       <c r="Q35" s="2" t="inlineStr">
         <is>
-          <t>3,36%</t>
+          <t>3,24%</t>
         </is>
       </c>
     </row>
@@ -2983,12 +2983,12 @@
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>4,17%</t>
+          <t>4,25%</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>6,02%</t>
+          <t>5,99%</t>
         </is>
       </c>
       <c r="H36" s="2" t="n">
@@ -3004,12 +3004,12 @@
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>3,55%</t>
+          <t>3,53%</t>
         </is>
       </c>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t>4,79%</t>
+          <t>4,75%</t>
         </is>
       </c>
       <c r="M36" s="2" t="n">
@@ -3025,12 +3025,12 @@
       </c>
       <c r="P36" s="2" t="inlineStr">
         <is>
-          <t>4,07%</t>
+          <t>4,05%</t>
         </is>
       </c>
       <c r="Q36" s="2" t="inlineStr">
         <is>
-          <t>5,1%</t>
+          <t>5,16%</t>
         </is>
       </c>
     </row>
@@ -3054,12 +3054,12 @@
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>15,18%</t>
+          <t>15,4%</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>18,26%</t>
+          <t>18,28%</t>
         </is>
       </c>
       <c r="H37" s="2" t="n">
@@ -3075,12 +3075,12 @@
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>14,21%</t>
+          <t>14,29%</t>
         </is>
       </c>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>17,07%</t>
+          <t>17,11%</t>
         </is>
       </c>
       <c r="M37" s="2" t="n">
@@ -3096,12 +3096,12 @@
       </c>
       <c r="P37" s="2" t="inlineStr">
         <is>
-          <t>15,26%</t>
+          <t>15,24%</t>
         </is>
       </c>
       <c r="Q37" s="2" t="inlineStr">
         <is>
-          <t>17,24%</t>
+          <t>17,21%</t>
         </is>
       </c>
     </row>
@@ -3125,12 +3125,12 @@
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>68,41%</t>
+          <t>68,43%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>72,34%</t>
+          <t>72,37%</t>
         </is>
       </c>
       <c r="H38" s="2" t="n">
@@ -3146,12 +3146,12 @@
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>71,47%</t>
+          <t>71,62%</t>
         </is>
       </c>
       <c r="L38" s="2" t="inlineStr">
         <is>
-          <t>75,81%</t>
+          <t>75,73%</t>
         </is>
       </c>
       <c r="M38" s="2" t="n">
@@ -3167,12 +3167,12 @@
       </c>
       <c r="P38" s="2" t="inlineStr">
         <is>
-          <t>70,53%</t>
+          <t>70,54%</t>
         </is>
       </c>
       <c r="Q38" s="2" t="inlineStr">
         <is>
-          <t>73,43%</t>
+          <t>73,49%</t>
         </is>
       </c>
     </row>
